--- a/input/industry/Steel_Production.xlsx
+++ b/input/industry/Steel_Production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37667D0-A0CC-499C-9C12-A18B03584E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71C6D3-0627-44B1-8E15-519BEE41409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2595" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_total" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="111">
   <si>
     <t>Country</t>
   </si>
@@ -367,13 +367,20 @@
   <si>
     <t>https://www.usgs.gov/centers/national-minerals-information-center/bureau-mines-minerals-yearbook-1932-1993</t>
   </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Open hearth furnace cathegorized as primary steel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -510,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,6 +595,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -876,11 +886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BA64" sqref="BA64:BD65"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5351,10 +5361,10 @@
         <v>4485</v>
       </c>
       <c r="X27" s="13">
-        <v>4500</v>
+        <v>4448</v>
       </c>
       <c r="Y27" s="13">
-        <v>3743</v>
+        <v>3608</v>
       </c>
       <c r="Z27" s="13">
         <v>2176</v>
@@ -5454,80 +5464,84 @@
       <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
-        <v>458.57178526841398</v>
-      </c>
-      <c r="C28" s="12">
-        <v>499.62297128589302</v>
-      </c>
-      <c r="D28" s="12">
-        <v>555.69288389513099</v>
-      </c>
-      <c r="E28" s="12">
-        <v>557.69538077403297</v>
-      </c>
-      <c r="F28" s="12">
-        <v>614.01560549313399</v>
-      </c>
-      <c r="G28" s="12">
-        <v>647.80774032459396</v>
-      </c>
-      <c r="H28" s="12">
-        <v>669.83520599250903</v>
-      </c>
-      <c r="I28" s="12">
-        <v>709.88514357053702</v>
-      </c>
-      <c r="J28" s="12">
-        <v>729.91011235955102</v>
-      </c>
-      <c r="K28" s="12">
-        <v>688.60861423221002</v>
-      </c>
-      <c r="L28" s="12">
-        <v>796.49313358302095</v>
-      </c>
-      <c r="M28" s="12">
-        <v>865.07865168539297</v>
-      </c>
-      <c r="N28" s="12">
-        <v>884.85330836454398</v>
-      </c>
-      <c r="O28" s="12">
-        <v>909.63420724094897</v>
-      </c>
-      <c r="P28" s="12">
-        <v>995.49126092384495</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>961.19850187265899</v>
-      </c>
-      <c r="R28" s="12">
-        <v>1034.7902621722801</v>
-      </c>
-      <c r="S28" s="12">
-        <v>1060.32209737828</v>
-      </c>
-      <c r="T28" s="12">
-        <v>1121.3982521847699</v>
-      </c>
-      <c r="U28" s="12">
-        <v>1131.41073657928</v>
-      </c>
-      <c r="V28" s="12">
-        <v>1093.1129837702899</v>
-      </c>
-      <c r="W28" s="12">
-        <v>1122.6498127340799</v>
-      </c>
-      <c r="X28" s="12">
-        <v>1126.4044943820199</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>936.91822721597998</v>
-      </c>
-      <c r="Z28" s="12">
-        <v>544.67915106117403</v>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39">
+        <f>Steel_prim!I28+Steel_sec!I28</f>
+        <v>369.13569682151592</v>
+      </c>
+      <c r="J28" s="39">
+        <f>Steel_prim!J28+Steel_sec!J28</f>
+        <v>395.60757946210271</v>
+      </c>
+      <c r="K28" s="39">
+        <f>Steel_prim!K28+Steel_sec!K28</f>
+        <v>407.37286063569684</v>
+      </c>
+      <c r="L28" s="39">
+        <f>Steel_prim!L28+Steel_sec!L28</f>
+        <v>426.98166259168704</v>
+      </c>
+      <c r="M28" s="39">
+        <f>Steel_prim!M28+Steel_sec!M28</f>
+        <v>447.57090464547679</v>
+      </c>
+      <c r="N28" s="39">
+        <f>Steel_prim!N28+Steel_sec!N28</f>
+        <v>484.33740831295847</v>
+      </c>
+      <c r="O28" s="39">
+        <f>Steel_prim!O28+Steel_sec!O28</f>
+        <v>502.96577017114913</v>
+      </c>
+      <c r="P28" s="39">
+        <f>Steel_prim!P28+Steel_sec!P28</f>
+        <v>514.24083129584358</v>
+      </c>
+      <c r="Q28" s="39">
+        <f>Steel_prim!Q28+Steel_sec!Q28</f>
+        <v>504.43643031784842</v>
+      </c>
+      <c r="R28" s="39">
+        <f>Steel_prim!R28+Steel_sec!R28</f>
+        <v>540.7127139364303</v>
+      </c>
+      <c r="S28" s="39">
+        <f>Steel_prim!S28+Steel_sec!S28</f>
+        <v>805.92176039119806</v>
+      </c>
+      <c r="T28" s="39">
+        <f>Steel_prim!T28+Steel_sec!T28</f>
+        <v>566.20415647921766</v>
+      </c>
+      <c r="U28" s="39">
+        <f>Steel_prim!U28+Steel_sec!U28</f>
+        <v>608.36308068459664</v>
+      </c>
+      <c r="V28" s="39">
+        <f>Steel_prim!V28+Steel_sec!V28</f>
+        <v>661.79706601466989</v>
+      </c>
+      <c r="W28" s="39">
+        <f>Steel_prim!W28+Steel_sec!W28</f>
+        <v>694.15158924205377</v>
+      </c>
+      <c r="X28" s="39">
+        <f>Steel_prim!X28+Steel_sec!X28</f>
+        <v>718.66259168704153</v>
+      </c>
+      <c r="Y28" s="39">
+        <f>Steel_prim!Y28+Steel_sec!Y28</f>
+        <v>539.73227383863082</v>
+      </c>
+      <c r="Z28" s="39">
+        <f>Steel_prim!Z28+Steel_sec!Z28</f>
+        <v>395.11735941320296</v>
       </c>
       <c r="AA28" s="12">
         <v>401</v>
@@ -5624,80 +5638,84 @@
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="12">
-        <v>298.47191011235998</v>
-      </c>
-      <c r="C29" s="12">
-        <v>325.19101123595499</v>
-      </c>
-      <c r="D29" s="12">
-        <v>361.68539325842698</v>
-      </c>
-      <c r="E29" s="12">
-        <v>362.98876404494399</v>
-      </c>
-      <c r="F29" s="12">
-        <v>399.64606741572999</v>
-      </c>
-      <c r="G29" s="12">
-        <v>421.64044943820198</v>
-      </c>
-      <c r="H29" s="12">
-        <v>435.97752808988798</v>
-      </c>
-      <c r="I29" s="12">
-        <v>462.044943820225</v>
-      </c>
-      <c r="J29" s="12">
-        <v>475.07865168539303</v>
-      </c>
-      <c r="K29" s="12">
-        <v>448.19662921348299</v>
-      </c>
-      <c r="L29" s="12">
-        <v>518.41573033707903</v>
-      </c>
-      <c r="M29" s="12">
-        <v>563.05617977528095</v>
-      </c>
-      <c r="N29" s="12">
-        <v>575.92696629213503</v>
-      </c>
-      <c r="O29" s="12">
-        <v>592.05617977528095</v>
-      </c>
-      <c r="P29" s="12">
-        <v>647.93820224719104</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>625.61797752809002</v>
-      </c>
-      <c r="R29" s="12">
-        <v>673.51685393258401</v>
-      </c>
-      <c r="S29" s="12">
-        <v>690.13483146067404</v>
-      </c>
-      <c r="T29" s="12">
-        <v>729.88764044943798</v>
-      </c>
-      <c r="U29" s="12">
-        <v>736.40449438202199</v>
-      </c>
-      <c r="V29" s="12">
-        <v>711.47752808988798</v>
-      </c>
-      <c r="W29" s="12">
-        <v>730.702247191011</v>
-      </c>
-      <c r="X29" s="12">
-        <v>733.14606741573004</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>609.81460674157302</v>
-      </c>
-      <c r="Z29" s="12">
-        <v>354.51685393258401</v>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39">
+        <f>Steel_prim!I29+Steel_sec!I29</f>
+        <v>684.76595479267496</v>
+      </c>
+      <c r="J29" s="39">
+        <f>Steel_prim!J29+Steel_sec!J29</f>
+        <v>693.58582406067558</v>
+      </c>
+      <c r="K29" s="39">
+        <f>Steel_prim!K29+Steel_sec!K29</f>
+        <v>632.01823761289347</v>
+      </c>
+      <c r="L29" s="39">
+        <f>Steel_prim!L29+Steel_sec!L29</f>
+        <v>759.93620577815477</v>
+      </c>
+      <c r="M29" s="39">
+        <f>Steel_prim!M29+Steel_sec!M29</f>
+        <v>835.94803153535247</v>
+      </c>
+      <c r="N29" s="39">
+        <f>Steel_prim!N29+Steel_sec!N29</f>
+        <v>837.71258919215609</v>
+      </c>
+      <c r="O29" s="39">
+        <f>Steel_prim!O29+Steel_sec!O29</f>
+        <v>857.86323037772559</v>
+      </c>
+      <c r="P29" s="39">
+        <f>Steel_prim!P29+Steel_sec!P29</f>
+        <v>962.49361309315884</v>
+      </c>
+      <c r="Q29" s="39">
+        <f>Steel_prim!Q29+Steel_sec!Q29</f>
+        <v>924.16728207175277</v>
+      </c>
+      <c r="R29" s="39">
+        <f>Steel_prim!R29+Steel_sec!R29</f>
+        <v>996.45633950401668</v>
+      </c>
+      <c r="S29" s="39">
+        <f>Steel_prim!S29+Steel_sec!S29</f>
+        <v>856.41624669427665</v>
+      </c>
+      <c r="T29" s="39">
+        <f>Steel_prim!T29+Steel_sec!T29</f>
+        <v>1092.7741879147745</v>
+      </c>
+      <c r="U29" s="39">
+        <f>Steel_prim!U29+Steel_sec!U29</f>
+        <v>1078.2794521231474</v>
+      </c>
+      <c r="V29" s="39">
+        <f>Steel_prim!V29+Steel_sec!V29</f>
+        <v>993.39469088368844</v>
+      </c>
+      <c r="W29" s="39">
+        <f>Steel_prim!W29+Steel_sec!W29</f>
+        <v>1010.7777057033082</v>
+      </c>
+      <c r="X29" s="39">
+        <f>Steel_prim!X29+Steel_sec!X29</f>
+        <v>982.67516590988464</v>
+      </c>
+      <c r="Y29" s="39">
+        <f>Steel_prim!Y29+Steel_sec!Y29</f>
+        <v>825.66860436105969</v>
+      </c>
+      <c r="Z29" s="39">
+        <f>Steel_prim!Z29+Steel_sec!Z29</f>
+        <v>452.27358914225834</v>
       </c>
       <c r="AA29" s="12">
         <v>261</v>
@@ -5712,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="12">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AF29" s="12">
         <v>72</v>
@@ -5794,80 +5812,84 @@
       <c r="A30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12">
-        <v>116.644194756554</v>
-      </c>
-      <c r="C30" s="12">
-        <v>127.086142322097</v>
-      </c>
-      <c r="D30" s="12">
-        <v>141.34831460674201</v>
-      </c>
-      <c r="E30" s="12">
-        <v>141.85767790262199</v>
-      </c>
-      <c r="F30" s="12">
-        <v>156.18352059925101</v>
-      </c>
-      <c r="G30" s="12">
-        <v>164.77902621722799</v>
-      </c>
-      <c r="H30" s="12">
-        <v>170.38202247191001</v>
-      </c>
-      <c r="I30" s="12">
-        <v>180.56928838951299</v>
-      </c>
-      <c r="J30" s="12">
-        <v>185.662921348315</v>
-      </c>
-      <c r="K30" s="12">
-        <v>175.15730337078699</v>
-      </c>
-      <c r="L30" s="12">
-        <v>202.59925093633001</v>
-      </c>
-      <c r="M30" s="12">
-        <v>220.044943820225</v>
-      </c>
-      <c r="N30" s="12">
-        <v>225.074906367041</v>
-      </c>
-      <c r="O30" s="12">
-        <v>231.378277153558</v>
-      </c>
-      <c r="P30" s="12">
-        <v>253.21722846441901</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>244.494382022472</v>
-      </c>
-      <c r="R30" s="12">
-        <v>263.21348314606701</v>
-      </c>
-      <c r="S30" s="12">
-        <v>269.707865168539</v>
-      </c>
-      <c r="T30" s="12">
-        <v>285.24344569288399</v>
-      </c>
-      <c r="U30" s="12">
-        <v>287.790262172285</v>
-      </c>
-      <c r="V30" s="12">
-        <v>278.048689138577</v>
-      </c>
-      <c r="W30" s="12">
-        <v>285.56179775280901</v>
-      </c>
-      <c r="X30" s="12">
-        <v>286.51685393258401</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>238.31835205992499</v>
-      </c>
-      <c r="Z30" s="12">
-        <v>138.546816479401</v>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39">
+        <f>Steel_prim!I30+Steel_sec!I30</f>
+        <v>93.894865525672373</v>
+      </c>
+      <c r="J30" s="39">
+        <f>Steel_prim!J30+Steel_sec!J30</f>
+        <v>100.62836185819071</v>
+      </c>
+      <c r="K30" s="39">
+        <f>Steel_prim!K30+Steel_sec!K30</f>
+        <v>103.62102689486554</v>
+      </c>
+      <c r="L30" s="39">
+        <f>Steel_prim!L30+Steel_sec!L30</f>
+        <v>108.60880195599023</v>
+      </c>
+      <c r="M30" s="39">
+        <f>Steel_prim!M30+Steel_sec!M30</f>
+        <v>113.84596577017115</v>
+      </c>
+      <c r="N30" s="39">
+        <f>Steel_prim!N30+Steel_sec!N30</f>
+        <v>123.19804400977996</v>
+      </c>
+      <c r="O30" s="39">
+        <f>Steel_prim!O30+Steel_sec!O30</f>
+        <v>127.93643031784842</v>
+      </c>
+      <c r="P30" s="39">
+        <f>Steel_prim!P30+Steel_sec!P30</f>
+        <v>130.80440097799513</v>
+      </c>
+      <c r="Q30" s="39">
+        <f>Steel_prim!Q30+Steel_sec!Q30</f>
+        <v>128.31051344743278</v>
+      </c>
+      <c r="R30" s="39">
+        <f>Steel_prim!R30+Steel_sec!R30</f>
+        <v>137.53789731051344</v>
+      </c>
+      <c r="S30" s="39">
+        <f>Steel_prim!S30+Steel_sec!S30</f>
+        <v>204.99755501222495</v>
+      </c>
+      <c r="T30" s="39">
+        <f>Steel_prim!T30+Steel_sec!T30</f>
+        <v>144.02200488997556</v>
+      </c>
+      <c r="U30" s="39">
+        <f>Steel_prim!U30+Steel_sec!U30</f>
+        <v>154.74572127139365</v>
+      </c>
+      <c r="V30" s="39">
+        <f>Steel_prim!V30+Steel_sec!V30</f>
+        <v>168.33740831295844</v>
+      </c>
+      <c r="W30" s="39">
+        <f>Steel_prim!W30+Steel_sec!W30</f>
+        <v>176.56723716381418</v>
+      </c>
+      <c r="X30" s="39">
+        <f>Steel_prim!X30+Steel_sec!X30</f>
+        <v>182.80195599022005</v>
+      </c>
+      <c r="Y30" s="39">
+        <f>Steel_prim!Y30+Steel_sec!Y30</f>
+        <v>137.28850855745722</v>
+      </c>
+      <c r="Z30" s="39">
+        <f>Steel_prim!Z30+Steel_sec!Z30</f>
+        <v>100.5036674816626</v>
       </c>
       <c r="AA30" s="12">
         <v>102</v>
@@ -5964,80 +5986,84 @@
       <c r="A31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="12">
-        <v>195.55056179775301</v>
-      </c>
-      <c r="C31" s="12">
-        <v>213.05617977528101</v>
-      </c>
-      <c r="D31" s="12">
-        <v>236.96629213483101</v>
-      </c>
-      <c r="E31" s="12">
-        <v>237.82022471910099</v>
-      </c>
-      <c r="F31" s="12">
-        <v>261.83707865168498</v>
-      </c>
-      <c r="G31" s="12">
-        <v>276.247191011236</v>
-      </c>
-      <c r="H31" s="12">
-        <v>285.64044943820198</v>
-      </c>
-      <c r="I31" s="12">
-        <v>302.71910112359598</v>
-      </c>
-      <c r="J31" s="12">
-        <v>311.25842696629201</v>
-      </c>
-      <c r="K31" s="12">
-        <v>293.64606741572999</v>
-      </c>
-      <c r="L31" s="12">
-        <v>339.65168539325799</v>
-      </c>
-      <c r="M31" s="12">
-        <v>368.89887640449399</v>
-      </c>
-      <c r="N31" s="12">
-        <v>377.33146067415697</v>
-      </c>
-      <c r="O31" s="12">
-        <v>387.89887640449399</v>
-      </c>
-      <c r="P31" s="12">
-        <v>424.51123595505601</v>
-      </c>
-      <c r="Q31" s="12">
-        <v>409.88764044943798</v>
-      </c>
-      <c r="R31" s="12">
-        <v>441.26966292134802</v>
-      </c>
-      <c r="S31" s="12">
-        <v>452.15730337078702</v>
-      </c>
-      <c r="T31" s="12">
-        <v>478.202247191011</v>
-      </c>
-      <c r="U31" s="12">
-        <v>482.47191011235998</v>
-      </c>
-      <c r="V31" s="12">
-        <v>466.14044943820198</v>
-      </c>
-      <c r="W31" s="12">
-        <v>478.73595505617999</v>
-      </c>
-      <c r="X31" s="12">
-        <v>480.33707865168498</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>399.53370786516899</v>
-      </c>
-      <c r="Z31" s="12">
-        <v>232.26966292134799</v>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39">
+        <f>Steel_prim!I31+Steel_sec!I31</f>
+        <v>183.45722830697071</v>
+      </c>
+      <c r="J31" s="39">
+        <f>Steel_prim!J31+Steel_sec!J31</f>
+        <v>194.25296579511999</v>
+      </c>
+      <c r="K31" s="39">
+        <f>Steel_prim!K31+Steel_sec!K31</f>
+        <v>195.21391148146299</v>
+      </c>
+      <c r="L31" s="39">
+        <f>Steel_prim!L31+Steel_sec!L31</f>
+        <v>210.32314068659247</v>
+      </c>
+      <c r="M31" s="39">
+        <f>Steel_prim!M31+Steel_sec!M31</f>
+        <v>222.77169614789682</v>
+      </c>
+      <c r="N31" s="39">
+        <f>Steel_prim!N31+Steel_sec!N31</f>
+        <v>237.1514052442493</v>
+      </c>
+      <c r="O31" s="39">
+        <f>Steel_prim!O31+Steel_sec!O31</f>
+        <v>245.56544084626515</v>
+      </c>
+      <c r="P31" s="39">
+        <f>Steel_prim!P31+Steel_sec!P31</f>
+        <v>256.07419789431663</v>
+      </c>
+      <c r="Q31" s="39">
+        <f>Steel_prim!Q31+Steel_sec!Q31</f>
+        <v>250.02149655705801</v>
+      </c>
+      <c r="R31" s="39">
+        <f>Steel_prim!R31+Steel_sec!R31</f>
+        <v>268.34314966818022</v>
+      </c>
+      <c r="S31" s="39">
+        <f>Steel_prim!S31+Steel_sec!S31</f>
+        <v>363.11750910633197</v>
+      </c>
+      <c r="T31" s="39">
+        <f>Steel_prim!T31+Steel_sec!T31</f>
+        <v>283.88502008382812</v>
+      </c>
+      <c r="U31" s="39">
+        <f>Steel_prim!U31+Steel_sec!U31</f>
+        <v>299.40589603812185</v>
+      </c>
+      <c r="V31" s="39">
+        <f>Steel_prim!V31+Steel_sec!V31</f>
+        <v>315.18042699965071</v>
+      </c>
+      <c r="W31" s="39">
+        <f>Steel_prim!W31+Steel_sec!W31</f>
+        <v>328.76212202484902</v>
+      </c>
+      <c r="X31" s="39">
+        <f>Steel_prim!X31+Steel_sec!X31</f>
+        <v>336.63303353126093</v>
+      </c>
+      <c r="Y31" s="39">
+        <f>Steel_prim!Y31+Steel_sec!Y31</f>
+        <v>257.95535402425025</v>
+      </c>
+      <c r="Z31" s="39">
+        <f>Steel_prim!Z31+Steel_sec!Z31</f>
+        <v>179.92322613642034</v>
       </c>
       <c r="AA31" s="12">
         <v>171</v>
@@ -6134,125 +6160,129 @@
       <c r="A32" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12">
-        <v>80.339291382140402</v>
-      </c>
-      <c r="C32" s="12">
-        <v>87.531236680541596</v>
-      </c>
-      <c r="D32" s="12">
-        <v>97.354381478357894</v>
-      </c>
-      <c r="E32" s="12">
-        <v>97.705208078279895</v>
-      </c>
-      <c r="F32" s="12">
-        <v>107.572206201086</v>
-      </c>
-      <c r="G32" s="12">
-        <v>113.49240507477001</v>
-      </c>
-      <c r="H32" s="12">
-        <v>117.35149767391199</v>
-      </c>
-      <c r="I32" s="12">
-        <v>124.368029672353</v>
-      </c>
-      <c r="J32" s="12">
-        <v>127.876295671573</v>
-      </c>
-      <c r="K32" s="12">
-        <v>120.640497048181</v>
-      </c>
-      <c r="L32" s="12">
-        <v>139.54128011898001</v>
-      </c>
-      <c r="M32" s="12">
-        <v>151.557091166308</v>
-      </c>
-      <c r="N32" s="12">
-        <v>155.021503840538</v>
-      </c>
-      <c r="O32" s="12">
-        <v>159.36298301457299</v>
-      </c>
-      <c r="P32" s="12">
-        <v>174.404673486229</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>168.39676796256501</v>
-      </c>
-      <c r="R32" s="12">
-        <v>181.289645509699</v>
-      </c>
-      <c r="S32" s="12">
-        <v>185.76268465870399</v>
-      </c>
-      <c r="T32" s="12">
-        <v>196.46289595632601</v>
-      </c>
-      <c r="U32" s="12">
-        <v>198.217028955936</v>
-      </c>
-      <c r="V32" s="12">
-        <v>191.50747023242701</v>
-      </c>
-      <c r="W32" s="12">
-        <v>196.682162581277</v>
-      </c>
-      <c r="X32" s="12">
-        <v>197.33996245613099</v>
-      </c>
-      <c r="Y32" s="12">
-        <v>164.14299543851101</v>
-      </c>
-      <c r="Z32" s="12">
-        <v>95.424835178786793</v>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39">
+        <f>Steel_prim!I32+Steel_sec!I32</f>
+        <v>141.76283618581908</v>
+      </c>
+      <c r="J32" s="39">
+        <f>Steel_prim!J32+Steel_sec!J32</f>
+        <v>151.92909535452324</v>
+      </c>
+      <c r="K32" s="39">
+        <f>Steel_prim!K32+Steel_sec!K32</f>
+        <v>156.4474327628362</v>
+      </c>
+      <c r="L32" s="39">
+        <f>Steel_prim!L32+Steel_sec!L32</f>
+        <v>163.97799511002447</v>
+      </c>
+      <c r="M32" s="39">
+        <f>Steel_prim!M32+Steel_sec!M32</f>
+        <v>171.88508557457214</v>
+      </c>
+      <c r="N32" s="39">
+        <f>Steel_prim!N32+Steel_sec!N32</f>
+        <v>186.00488997555013</v>
+      </c>
+      <c r="O32" s="39">
+        <f>Steel_prim!O32+Steel_sec!O32</f>
+        <v>193.15892420537898</v>
+      </c>
+      <c r="P32" s="39">
+        <f>Steel_prim!P32+Steel_sec!P32</f>
+        <v>197.48899755501222</v>
+      </c>
+      <c r="Q32" s="39">
+        <f>Steel_prim!Q32+Steel_sec!Q32</f>
+        <v>193.72371638141809</v>
+      </c>
+      <c r="R32" s="39">
+        <f>Steel_prim!R32+Steel_sec!R32</f>
+        <v>207.65525672371638</v>
+      </c>
+      <c r="S32" s="39">
+        <f>Steel_prim!S32+Steel_sec!S32</f>
+        <v>309.50611246943765</v>
+      </c>
+      <c r="T32" s="39">
+        <f>Steel_prim!T32+Steel_sec!T32</f>
+        <v>217.44498777506112</v>
+      </c>
+      <c r="U32" s="39">
+        <f>Steel_prim!U32+Steel_sec!U32</f>
+        <v>233.63569682151589</v>
+      </c>
+      <c r="V32" s="39">
+        <f>Steel_prim!V32+Steel_sec!V32</f>
+        <v>254.15647921760393</v>
+      </c>
+      <c r="W32" s="39">
+        <f>Steel_prim!W32+Steel_sec!W32</f>
+        <v>266.58190709046454</v>
+      </c>
+      <c r="X32" s="39">
+        <f>Steel_prim!X32+Steel_sec!X32</f>
+        <v>275.9951100244499</v>
+      </c>
+      <c r="Y32" s="39">
+        <f>Steel_prim!Y32+Steel_sec!Y32</f>
+        <v>207.27872860635696</v>
+      </c>
+      <c r="Z32" s="39">
+        <f>Steel_prim!Z32+Steel_sec!Z32</f>
+        <v>151.74083129584352</v>
       </c>
       <c r="AA32" s="15">
-        <v>70.253026634382607</v>
+        <v>154</v>
       </c>
       <c r="AB32" s="15">
-        <v>19.064164648910399</v>
+        <v>120</v>
       </c>
       <c r="AC32" s="15">
-        <v>14.6404358353511</v>
+        <v>118</v>
       </c>
       <c r="AD32" s="15">
-        <v>19.169491525423702</v>
+        <v>89</v>
       </c>
       <c r="AE32" s="15">
-        <v>72.570217917675507</v>
+        <v>121</v>
       </c>
       <c r="AF32" s="15">
-        <v>107.96004842615</v>
+        <v>132</v>
       </c>
       <c r="AG32" s="15">
-        <v>103.22033898305099</v>
+        <v>141</v>
       </c>
       <c r="AH32" s="15">
-        <v>24.225181598062999</v>
+        <v>88</v>
       </c>
       <c r="AI32" s="15">
-        <v>73.307506053268796</v>
+        <v>86</v>
       </c>
       <c r="AJ32" s="15">
-        <v>62.669491525423702</v>
+        <v>110</v>
       </c>
       <c r="AK32" s="15">
-        <v>62.248184019370498</v>
+        <v>83</v>
       </c>
       <c r="AL32" s="15">
-        <v>74.887409200968506</v>
+        <v>53</v>
       </c>
       <c r="AM32" s="15">
-        <v>123.75907990314801</v>
+        <v>150</v>
       </c>
       <c r="AN32" s="15">
-        <v>136.08232445520599</v>
+        <v>102</v>
       </c>
       <c r="AO32" s="15">
-        <v>192.01089588377701</v>
+        <v>161</v>
       </c>
       <c r="AP32" s="17">
         <v>174</v>
@@ -6304,125 +6334,129 @@
       <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="12">
-        <v>682.42225668277899</v>
-      </c>
-      <c r="C33" s="12">
-        <v>743.51245870023195</v>
-      </c>
-      <c r="D33" s="12">
-        <v>826.95273462651096</v>
-      </c>
-      <c r="E33" s="12">
-        <v>829.93274448102102</v>
-      </c>
-      <c r="F33" s="12">
-        <v>913.74552163911301</v>
-      </c>
-      <c r="G33" s="12">
-        <v>964.03318793396897</v>
-      </c>
-      <c r="H33" s="12">
-        <v>996.81329633357802</v>
-      </c>
-      <c r="I33" s="12">
-        <v>1056.41349342378</v>
-      </c>
-      <c r="J33" s="12">
-        <v>1086.2135919688801</v>
-      </c>
-      <c r="K33" s="12">
-        <v>1024.75088871961</v>
-      </c>
-      <c r="L33" s="12">
-        <v>1185.2989196313299</v>
-      </c>
-      <c r="M33" s="12">
-        <v>1287.3642571483001</v>
-      </c>
-      <c r="N33" s="12">
-        <v>1316.79185446158</v>
-      </c>
-      <c r="O33" s="12">
-        <v>1353.6694764111401</v>
-      </c>
-      <c r="P33" s="12">
-        <v>1481.4373989232599</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>1430.4047301647799</v>
-      </c>
-      <c r="R33" s="12">
-        <v>1539.9200923180199</v>
-      </c>
-      <c r="S33" s="12">
-        <v>1577.91521796302</v>
-      </c>
-      <c r="T33" s="12">
-        <v>1668.8055185255701</v>
-      </c>
-      <c r="U33" s="12">
-        <v>1683.70556779812</v>
-      </c>
-      <c r="V33" s="12">
-        <v>1626.7128793306199</v>
-      </c>
-      <c r="W33" s="12">
-        <v>1670.6680246846399</v>
-      </c>
-      <c r="X33" s="12">
-        <v>1676.25554316185</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>1394.2721106788399</v>
-      </c>
-      <c r="Z33" s="12">
-        <v>810.56268042670604</v>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39">
+        <f>Steel_prim!I33+Steel_sec!I33</f>
+        <v>1362.983418367347</v>
+      </c>
+      <c r="J33" s="39">
+        <f>Steel_prim!J33+Steel_sec!J33</f>
+        <v>1379.9961734693877</v>
+      </c>
+      <c r="K33" s="39">
+        <f>Steel_prim!K33+Steel_sec!K33</f>
+        <v>1256.3265306122448</v>
+      </c>
+      <c r="L33" s="39">
+        <f>Steel_prim!L33+Steel_sec!L33</f>
+        <v>1512.1721938775511</v>
+      </c>
+      <c r="M33" s="39">
+        <f>Steel_prim!M33+Steel_sec!M33</f>
+        <v>1663.9783163265306</v>
+      </c>
+      <c r="N33" s="39">
+        <f>Steel_prim!N33+Steel_sec!N33</f>
+        <v>1666.595663265306</v>
+      </c>
+      <c r="O33" s="39">
+        <f>Steel_prim!O33+Steel_sec!O33</f>
+        <v>1706.5102040816325</v>
+      </c>
+      <c r="P33" s="39">
+        <f>Steel_prim!P33+Steel_sec!P33</f>
+        <v>1915.8979591836735</v>
+      </c>
+      <c r="Q33" s="39">
+        <f>Steel_prim!Q33+Steel_sec!Q33</f>
+        <v>1839.3405612244899</v>
+      </c>
+      <c r="R33" s="39">
+        <f>Steel_prim!R33+Steel_sec!R33</f>
+        <v>1983.2946428571429</v>
+      </c>
+      <c r="S33" s="39">
+        <f>Steel_prim!S33+Steel_sec!S33</f>
+        <v>1696.0408163265306</v>
+      </c>
+      <c r="T33" s="39">
+        <f>Steel_prim!T33+Steel_sec!T33</f>
+        <v>2175.6696428571427</v>
+      </c>
+      <c r="U33" s="39">
+        <f>Steel_prim!U33+Steel_sec!U33</f>
+        <v>2145.5701530612246</v>
+      </c>
+      <c r="V33" s="39">
+        <f>Steel_prim!V33+Steel_sec!V33</f>
+        <v>1974.1339285714284</v>
+      </c>
+      <c r="W33" s="39">
+        <f>Steel_prim!W33+Steel_sec!W33</f>
+        <v>2008.1594387755101</v>
+      </c>
+      <c r="X33" s="39">
+        <f>Steel_prim!X33+Steel_sec!X33</f>
+        <v>1951.2321428571429</v>
+      </c>
+      <c r="Y33" s="39">
+        <f>Steel_prim!Y33+Steel_sec!Y33</f>
+        <v>1641.0765306122448</v>
+      </c>
+      <c r="Z33" s="39">
+        <f>Steel_prim!Z33+Steel_sec!Z33</f>
+        <v>896.44132653061229</v>
       </c>
       <c r="AA33" s="15">
-        <v>596.74697336561701</v>
+        <v>513</v>
       </c>
       <c r="AB33" s="15">
-        <v>161.93583535108999</v>
+        <v>61</v>
       </c>
       <c r="AC33" s="15">
-        <v>124.359564164649</v>
+        <v>21</v>
       </c>
       <c r="AD33" s="15">
-        <v>162.83050847457599</v>
+        <v>93</v>
       </c>
       <c r="AE33" s="15">
-        <v>616.42978208232398</v>
+        <v>568</v>
       </c>
       <c r="AF33" s="15">
-        <v>917.03995157384998</v>
+        <v>893</v>
       </c>
       <c r="AG33" s="15">
-        <v>876.77966101694904</v>
+        <v>839</v>
       </c>
       <c r="AH33" s="15">
-        <v>205.77481840193701</v>
+        <v>142</v>
       </c>
       <c r="AI33" s="15">
-        <v>622.69249394673102</v>
+        <v>592</v>
       </c>
       <c r="AJ33" s="15">
-        <v>532.33050847457605</v>
+        <v>485</v>
       </c>
       <c r="AK33" s="15">
-        <v>528.75181598063</v>
+        <v>508</v>
       </c>
       <c r="AL33" s="15">
-        <v>636.11259079903198</v>
+        <v>658</v>
       </c>
       <c r="AM33" s="15">
-        <v>1051.24092009685</v>
+        <v>1025</v>
       </c>
       <c r="AN33" s="15">
-        <v>1155.91767554479</v>
+        <v>1185</v>
       </c>
       <c r="AO33" s="15">
-        <v>1630.98910411622</v>
+        <v>1662</v>
       </c>
       <c r="AP33" s="17">
         <v>1478</v>
@@ -10438,11 +10472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN49" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BA69" sqref="BA69"/>
+      <selection pane="bottomRight" activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -15186,24 +15220,78 @@
       <c r="A27" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
+      <c r="I27" s="7">
+        <f>Data_total!I27-Steel_sec!I27</f>
+        <v>2083</v>
+      </c>
+      <c r="J27" s="7">
+        <f>Data_total!J27-Steel_sec!J27</f>
+        <v>2109</v>
+      </c>
+      <c r="K27" s="7">
+        <f>Data_total!K27-Steel_sec!K27</f>
+        <v>1920</v>
+      </c>
+      <c r="L27" s="7">
+        <f>Data_total!L27-Steel_sec!L27</f>
+        <v>2311</v>
+      </c>
+      <c r="M27" s="7">
+        <f>Data_total!M27-Steel_sec!M27</f>
+        <v>2543</v>
+      </c>
+      <c r="N27" s="7">
+        <f>Data_total!N27-Steel_sec!N27</f>
+        <v>2547</v>
+      </c>
+      <c r="O27" s="7">
+        <f>Data_total!O27-Steel_sec!O27</f>
+        <v>2608</v>
+      </c>
+      <c r="P27" s="7">
+        <f>Data_total!P27-Steel_sec!P27</f>
+        <v>2928</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>Data_total!Q27-Steel_sec!Q27</f>
+        <v>2811</v>
+      </c>
+      <c r="R27" s="7">
+        <f>Data_total!R27-Steel_sec!R27</f>
+        <v>3031</v>
+      </c>
+      <c r="S27" s="7">
+        <f>Data_total!S27-Steel_sec!S27</f>
+        <v>2592</v>
+      </c>
+      <c r="T27" s="7">
+        <f>Data_total!T27-Steel_sec!T27</f>
+        <v>3325</v>
+      </c>
+      <c r="U27" s="7">
+        <f>Data_total!U27-Steel_sec!U27</f>
+        <v>3279</v>
+      </c>
+      <c r="V27" s="7">
+        <f>Data_total!V27-Steel_sec!V27</f>
+        <v>3017</v>
+      </c>
+      <c r="W27" s="7">
+        <f>Data_total!W27-Steel_sec!W27</f>
+        <v>3069</v>
+      </c>
+      <c r="X27" s="7">
+        <f>Data_total!X27-Steel_sec!X27</f>
+        <v>2982</v>
+      </c>
+      <c r="Y27" s="7">
+        <f>1715+793</f>
+        <v>2508</v>
+      </c>
+      <c r="Z27" s="7">
+        <f>1019+351</f>
+        <v>1370</v>
+      </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -15239,78 +15327,24 @@
       <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="7">
-        <f>Data_total!I28-Steel_sec!I28</f>
-        <v>338.47923951149647</v>
-      </c>
-      <c r="J28" s="7">
-        <f>Data_total!J28-Steel_sec!J28</f>
-        <v>331.86952195364699</v>
-      </c>
-      <c r="K28" s="7">
-        <f>Data_total!K28-Steel_sec!K28</f>
-        <v>278.73038544992227</v>
-      </c>
-      <c r="L28" s="7">
-        <f>Data_total!L28-Steel_sec!L28</f>
-        <v>366.88550750676029</v>
-      </c>
-      <c r="M28" s="7">
-        <f>Data_total!M28-Steel_sec!M28</f>
-        <v>414.75515845046073</v>
-      </c>
-      <c r="N28" s="7">
-        <f>Data_total!N28-Steel_sec!N28</f>
-        <v>397.53719520341247</v>
-      </c>
-      <c r="O28" s="7">
-        <f>Data_total!O28-Steel_sec!O28</f>
-        <v>403.57516665054317</v>
-      </c>
-      <c r="P28" s="7">
-        <f>Data_total!P28-Steel_sec!P28</f>
-        <v>478.08781688940473</v>
-      </c>
-      <c r="Q28" s="7">
-        <f>Data_total!Q28-Steel_sec!Q28</f>
-        <v>453.65975648520526</v>
-      </c>
-      <c r="R28" s="7">
-        <f>Data_total!R28-Steel_sec!R28</f>
-        <v>490.75213179097648</v>
-      </c>
-      <c r="S28" s="7">
-        <f>Data_total!S28-Steel_sec!S28</f>
-        <v>249.4438685959924</v>
-      </c>
-      <c r="T28" s="7">
-        <f>Data_total!T28-Steel_sec!T28</f>
-        <v>551.71190532130151</v>
-      </c>
-      <c r="U28" s="7">
-        <f>Data_total!U28-Steel_sec!U28</f>
-        <v>519.30618553376974</v>
-      </c>
-      <c r="V28" s="7">
-        <f>Data_total!V28-Steel_sec!V28</f>
-        <v>427.24582509870345</v>
-      </c>
-      <c r="W28" s="7">
-        <f>Data_total!W28-Steel_sec!W28</f>
-        <v>424.22914852743804</v>
-      </c>
-      <c r="X28" s="7">
-        <f>Data_total!X28-Steel_sec!X28</f>
-        <v>403.32208355791192</v>
-      </c>
-      <c r="Y28" s="7">
-        <f>Data_total!Y28-Steel_sec!Y28</f>
-        <v>393.86656669937497</v>
-      </c>
-      <c r="Z28" s="7">
-        <f>Data_total!Z28-Steel_sec!Z28</f>
-        <v>147.13179558761902</v>
-      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="7">
         <f>Data_total!AA28-Steel_sec!AA28</f>
         <v>0</v>
@@ -15428,80 +15462,80 @@
         <v>27</v>
       </c>
       <c r="I29" s="7">
-        <f>Data_total!I29-Steel_sec!I29</f>
-        <v>462.044943820225</v>
+        <f t="shared" ref="I29:Y29" si="0">$AA29/SUM($AA$28:$AA$33)*I$27</f>
+        <v>680.16326530612241</v>
       </c>
       <c r="J29" s="7">
-        <f>Data_total!J29-Steel_sec!J29</f>
-        <v>475.07865168539303</v>
+        <f t="shared" si="0"/>
+        <v>688.65306122448976</v>
       </c>
       <c r="K29" s="7">
-        <f>Data_total!K29-Steel_sec!K29</f>
-        <v>448.19662921348299</v>
+        <f t="shared" si="0"/>
+        <v>626.93877551020398</v>
       </c>
       <c r="L29" s="7">
-        <f>Data_total!L29-Steel_sec!L29</f>
-        <v>518.41573033707903</v>
+        <f t="shared" si="0"/>
+        <v>754.61224489795916</v>
       </c>
       <c r="M29" s="7">
-        <f>Data_total!M29-Steel_sec!M29</f>
-        <v>563.05617977528095</v>
+        <f t="shared" si="0"/>
+        <v>830.36734693877543</v>
       </c>
       <c r="N29" s="7">
-        <f>Data_total!N29-Steel_sec!N29</f>
-        <v>575.92696629213503</v>
+        <f t="shared" si="0"/>
+        <v>831.67346938775506</v>
       </c>
       <c r="O29" s="7">
-        <f>Data_total!O29-Steel_sec!O29</f>
-        <v>592.05617977528095</v>
+        <f t="shared" si="0"/>
+        <v>851.59183673469386</v>
       </c>
       <c r="P29" s="7">
-        <f>Data_total!P29-Steel_sec!P29</f>
-        <v>647.93820224719104</v>
+        <f t="shared" si="0"/>
+        <v>956.08163265306109</v>
       </c>
       <c r="Q29" s="7">
-        <f>Data_total!Q29-Steel_sec!Q29</f>
-        <v>625.61797752809002</v>
+        <f t="shared" si="0"/>
+        <v>917.87755102040808</v>
       </c>
       <c r="R29" s="7">
-        <f>Data_total!R29-Steel_sec!R29</f>
-        <v>673.51685393258401</v>
+        <f t="shared" si="0"/>
+        <v>989.71428571428567</v>
       </c>
       <c r="S29" s="7">
-        <f>Data_total!S29-Steel_sec!S29</f>
-        <v>690.13483146067404</v>
+        <f t="shared" si="0"/>
+        <v>846.36734693877543</v>
       </c>
       <c r="T29" s="7">
-        <f>Data_total!T29-Steel_sec!T29</f>
-        <v>729.88764044943798</v>
+        <f t="shared" si="0"/>
+        <v>1085.7142857142856</v>
       </c>
       <c r="U29" s="7">
-        <f>Data_total!U29-Steel_sec!U29</f>
-        <v>736.40449438202199</v>
+        <f t="shared" si="0"/>
+        <v>1070.6938775510203</v>
       </c>
       <c r="V29" s="7">
-        <f>Data_total!V29-Steel_sec!V29</f>
-        <v>711.47752808988798</v>
+        <f t="shared" si="0"/>
+        <v>985.14285714285711</v>
       </c>
       <c r="W29" s="7">
-        <f>Data_total!W29-Steel_sec!W29</f>
-        <v>730.702247191011</v>
+        <f t="shared" si="0"/>
+        <v>1002.1224489795918</v>
       </c>
       <c r="X29" s="7">
-        <f>Data_total!X29-Steel_sec!X29</f>
-        <v>733.14606741573004</v>
+        <f t="shared" si="0"/>
+        <v>973.71428571428567</v>
       </c>
       <c r="Y29" s="7">
-        <f>Data_total!Y29-Steel_sec!Y29</f>
-        <v>609.81460674157302</v>
+        <f t="shared" si="0"/>
+        <v>818.93877551020398</v>
       </c>
       <c r="Z29" s="7">
-        <f>Data_total!Z29-Steel_sec!Z29</f>
-        <v>354.51685393258401</v>
+        <f>$AA29/SUM($AA$28:$AA$33)*Z$27</f>
+        <v>447.34693877551018</v>
       </c>
       <c r="AA29" s="7">
         <f>Data_total!AA29-Steel_sec!AA29</f>
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AB29" s="7">
         <f>Data_total!AB29-Steel_sec!AB29</f>
@@ -15517,7 +15551,7 @@
       </c>
       <c r="AE29" s="7">
         <f>Data_total!AE29-Steel_sec!AE29</f>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AF29" s="7">
         <f>Data_total!AF29-Steel_sec!AF29</f>
@@ -15615,78 +15649,24 @@
       <c r="A30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="7">
-        <f>Data_total!I30-Steel_sec!I30</f>
-        <v>86.096963666265566</v>
-      </c>
-      <c r="J30" s="7">
-        <f>Data_total!J30-Steel_sec!J30</f>
-        <v>84.415688875990071</v>
-      </c>
-      <c r="K30" s="7">
-        <f>Data_total!K30-Steel_sec!K30</f>
-        <v>70.899000787760954</v>
-      </c>
-      <c r="L30" s="7">
-        <f>Data_total!L30-Steel_sec!L30</f>
-        <v>93.322498168802113</v>
-      </c>
-      <c r="M30" s="7">
-        <f>Data_total!M30-Steel_sec!M30</f>
-        <v>105.49881835897015</v>
-      </c>
-      <c r="N30" s="7">
-        <f>Data_total!N30-Steel_sec!N30</f>
-        <v>101.11918680984516</v>
-      </c>
-      <c r="O30" s="7">
-        <f>Data_total!O30-Steel_sec!O30</f>
-        <v>102.6550299210854</v>
-      </c>
-      <c r="P30" s="7">
-        <f>Data_total!P30-Steel_sec!P30</f>
-        <v>121.60837237585784</v>
-      </c>
-      <c r="Q30" s="7">
-        <f>Data_total!Q30-Steel_sec!Q30</f>
-        <v>115.39475102616174</v>
-      </c>
-      <c r="R30" s="7">
-        <f>Data_total!R30-Steel_sec!R30</f>
-        <v>124.82971930842834</v>
-      </c>
-      <c r="S30" s="7">
-        <f>Data_total!S30-Steel_sec!S30</f>
-        <v>63.449562585512751</v>
-      </c>
-      <c r="T30" s="7">
-        <f>Data_total!T30-Steel_sec!T30</f>
-        <v>140.33569661539292</v>
-      </c>
-      <c r="U30" s="7">
-        <f>Data_total!U30-Steel_sec!U30</f>
-        <v>132.09284519811493</v>
-      </c>
-      <c r="V30" s="7">
-        <f>Data_total!V30-Steel_sec!V30</f>
-        <v>108.67599541163938</v>
-      </c>
-      <c r="W30" s="7">
-        <f>Data_total!W30-Steel_sec!W30</f>
-        <v>107.90866122144334</v>
-      </c>
-      <c r="X30" s="7">
-        <f>Data_total!X30-Steel_sec!X30</f>
-        <v>102.59065467059102</v>
-      </c>
-      <c r="Y30" s="7">
-        <f>Data_total!Y30-Steel_sec!Y30</f>
-        <v>100.18551073151198</v>
-      </c>
-      <c r="Z30" s="7">
-        <f>Data_total!Z30-Steel_sec!Z30</f>
-        <v>37.425045261689007</v>
-      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
       <c r="AA30" s="7">
         <f>Data_total!AA30-Steel_sec!AA30</f>
         <v>0</v>
@@ -15804,76 +15784,76 @@
         <v>29</v>
       </c>
       <c r="I31" s="7">
-        <f>Data_total!I31-Steel_sec!I31</f>
-        <v>158.23201625274726</v>
+        <f t="shared" ref="I31:Y31" si="1">$AA31/SUM($AA$28:$AA$33)*I$27</f>
+        <v>39.85331632653061</v>
       </c>
       <c r="J31" s="7">
-        <f>Data_total!J31-Steel_sec!J31</f>
-        <v>156.40971847920713</v>
+        <f t="shared" si="1"/>
+        <v>40.350765306122447</v>
       </c>
       <c r="K31" s="7">
-        <f>Data_total!K31-Steel_sec!K31</f>
-        <v>134.19219287698459</v>
+        <f t="shared" si="1"/>
+        <v>36.734693877551024</v>
       </c>
       <c r="L31" s="7">
-        <f>Data_total!L31-Steel_sec!L31</f>
-        <v>172.52253410174507</v>
+        <f t="shared" si="1"/>
+        <v>44.215561224489797</v>
       </c>
       <c r="M31" s="7">
-        <f>Data_total!M31-Steel_sec!M31</f>
-        <v>193.71068452257515</v>
+        <f t="shared" si="1"/>
+        <v>48.654336734693878</v>
       </c>
       <c r="N31" s="7">
-        <f>Data_total!N31-Steel_sec!N31</f>
-        <v>187.75212488079902</v>
+        <f t="shared" si="1"/>
+        <v>48.73086734693878</v>
       </c>
       <c r="O31" s="7">
-        <f>Data_total!O31-Steel_sec!O31</f>
-        <v>191.02802769600686</v>
+        <f t="shared" si="1"/>
+        <v>49.897959183673471</v>
       </c>
       <c r="P31" s="7">
-        <f>Data_total!P31-Steel_sec!P31</f>
-        <v>223.22710311372754</v>
+        <f t="shared" si="1"/>
+        <v>56.020408163265309</v>
       </c>
       <c r="Q31" s="7">
-        <f>Data_total!Q31-Steel_sec!Q31</f>
-        <v>212.44114598449326</v>
+        <f t="shared" si="1"/>
+        <v>53.781887755102041</v>
       </c>
       <c r="R31" s="7">
-        <f>Data_total!R31-Steel_sec!R31</f>
-        <v>229.62390646378336</v>
+        <f t="shared" si="1"/>
+        <v>57.991071428571431</v>
       </c>
       <c r="S31" s="7">
-        <f>Data_total!S31-Steel_sec!S31</f>
-        <v>136.70342883204154</v>
+        <f t="shared" si="1"/>
+        <v>49.591836734693878</v>
       </c>
       <c r="T31" s="7">
-        <f>Data_total!T31-Steel_sec!T31</f>
-        <v>256.57863095484856</v>
+        <f t="shared" si="1"/>
+        <v>63.616071428571431</v>
       </c>
       <c r="U31" s="7">
-        <f>Data_total!U31-Steel_sec!U31</f>
-        <v>244.34644885774736</v>
+        <f t="shared" si="1"/>
+        <v>62.735969387755105</v>
       </c>
       <c r="V31" s="7">
-        <f>Data_total!V31-Steel_sec!V31</f>
-        <v>207.09985903229784</v>
+        <f t="shared" si="1"/>
+        <v>57.723214285714285</v>
       </c>
       <c r="W31" s="7">
-        <f>Data_total!W31-Steel_sec!W31</f>
-        <v>207.03115800820945</v>
+        <f t="shared" si="1"/>
+        <v>58.718112244897959</v>
       </c>
       <c r="X31" s="7">
-        <f>Data_total!X31-Steel_sec!X31</f>
-        <v>199.03818566275498</v>
+        <f t="shared" si="1"/>
+        <v>57.053571428571431</v>
       </c>
       <c r="Y31" s="7">
-        <f>Data_total!Y31-Steel_sec!Y31</f>
-        <v>188.271715245243</v>
+        <f t="shared" si="1"/>
+        <v>47.984693877551024</v>
       </c>
       <c r="Z31" s="7">
-        <f>Data_total!Z31-Steel_sec!Z31</f>
-        <v>77.612836353081974</v>
+        <f>$AA31/SUM($AA$28:$AA$33)*Z$27</f>
+        <v>26.211734693877553</v>
       </c>
       <c r="AA31" s="7">
         <f>Data_total!AA31-Steel_sec!AA31</f>
@@ -15991,137 +15971,83 @@
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="7">
-        <f>Data_total!I32-Steel_sec!I32</f>
-        <v>-18.266656674510386</v>
-      </c>
-      <c r="J32" s="7">
-        <f>Data_total!J32-Steel_sec!J32</f>
-        <v>-24.987172963113252</v>
-      </c>
-      <c r="K32" s="7">
-        <f>Data_total!K32-Steel_sec!K32</f>
-        <v>-36.769097047759857</v>
-      </c>
-      <c r="L32" s="7">
-        <f>Data_total!L32-Steel_sec!L32</f>
-        <v>-25.445189745718523</v>
-      </c>
-      <c r="M32" s="7">
-        <f>Data_total!M32-Steel_sec!M32</f>
-        <v>-21.385098255586087</v>
-      </c>
-      <c r="N32" s="7">
-        <f>Data_total!N32-Steel_sec!N32</f>
-        <v>-32.127327647776752</v>
-      </c>
-      <c r="O32" s="7">
-        <f>Data_total!O32-Steel_sec!O32</f>
-        <v>-34.983880454061563</v>
-      </c>
-      <c r="P32" s="7">
-        <f>Data_total!P32-Steel_sec!P32</f>
-        <v>-24.298893549441203</v>
-      </c>
-      <c r="Q32" s="7">
-        <f>Data_total!Q32-Steel_sec!Q32</f>
-        <v>-26.518361188726345</v>
-      </c>
-      <c r="R32" s="7">
-        <f>Data_total!R32-Steel_sec!R32</f>
-        <v>-27.642703813794043</v>
-      </c>
-      <c r="S32" s="7">
-        <f>Data_total!S32-Steel_sec!S32</f>
-        <v>-125.64690943723664</v>
-      </c>
-      <c r="T32" s="7">
-        <f>Data_total!T32-Steel_sec!T32</f>
-        <v>-22.319391866551996</v>
-      </c>
-      <c r="U32" s="7">
-        <f>Data_total!U32-Steel_sec!U32</f>
-        <v>-36.855541769771037</v>
-      </c>
-      <c r="V32" s="7">
-        <f>Data_total!V32-Steel_sec!V32</f>
-        <v>-64.212086963144714</v>
-      </c>
-      <c r="W32" s="7">
-        <f>Data_total!W32-Steel_sec!W32</f>
-        <v>-71.539239632744909</v>
-      </c>
-      <c r="X32" s="7">
-        <f>Data_total!X32-Steel_sec!X32</f>
-        <v>-80.35253446883803</v>
-      </c>
-      <c r="Y32" s="7">
-        <f>Data_total!Y32-Steel_sec!Y32</f>
-        <v>-44.410510096543987</v>
-      </c>
-      <c r="Z32" s="7">
-        <f>Data_total!Z32-Steel_sec!Z32</f>
-        <v>-57.249211561680198</v>
-      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
       <c r="AA32" s="7">
         <f>Data_total!AA32-Steel_sec!AA32</f>
-        <v>-83.746973365617393</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="7">
         <f>Data_total!AB32-Steel_sec!AB32</f>
-        <v>-100.93583535108959</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="7">
         <f>Data_total!AC32-Steel_sec!AC32</f>
-        <v>-103.3595641646489</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="7">
         <f>Data_total!AD32-Steel_sec!AD32</f>
-        <v>-69.830508474576305</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="7">
         <f>Data_total!AE32-Steel_sec!AE32</f>
-        <v>-48.429782082324493</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="7">
         <f>Data_total!AF32-Steel_sec!AF32</f>
-        <v>-24.039951573850004</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="7">
         <f>Data_total!AG32-Steel_sec!AG32</f>
-        <v>-37.779661016949007</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="7">
         <f>Data_total!AH32-Steel_sec!AH32</f>
-        <v>-63.774818401936997</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="7">
         <f>Data_total!AI32-Steel_sec!AI32</f>
-        <v>-12.692493946731204</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="7">
         <f>Data_total!AJ32-Steel_sec!AJ32</f>
-        <v>-47.330508474576298</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="7">
         <f>Data_total!AK32-Steel_sec!AK32</f>
-        <v>-20.751815980629502</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="7">
         <f>Data_total!AL32-Steel_sec!AL32</f>
-        <v>21.887409200968506</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="7">
         <f>Data_total!AM32-Steel_sec!AM32</f>
-        <v>-26.240920096851994</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="7">
         <f>Data_total!AN32-Steel_sec!AN32</f>
-        <v>34.082324455205992</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="7">
         <f>Data_total!AO32-Steel_sec!AO32</f>
-        <v>31.01089588377701</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="7">
         <f>Data_total!AP32-Steel_sec!AP32</f>
@@ -16180,136 +16106,136 @@
         <v>31</v>
       </c>
       <c r="I33" s="7">
-        <f>Data_total!I33-Steel_sec!I33</f>
-        <v>1056.41349342378</v>
+        <f t="shared" ref="I33:Y33" si="2">$AA33/SUM($AA$28:$AA$33)*I$27</f>
+        <v>1362.983418367347</v>
       </c>
       <c r="J33" s="7">
-        <f>Data_total!J33-Steel_sec!J33</f>
-        <v>1086.2135919688801</v>
+        <f t="shared" si="2"/>
+        <v>1379.9961734693877</v>
       </c>
       <c r="K33" s="7">
-        <f>Data_total!K33-Steel_sec!K33</f>
-        <v>1024.75088871961</v>
+        <f t="shared" si="2"/>
+        <v>1256.3265306122448</v>
       </c>
       <c r="L33" s="7">
-        <f>Data_total!L33-Steel_sec!L33</f>
-        <v>1185.2989196313299</v>
+        <f t="shared" si="2"/>
+        <v>1512.1721938775511</v>
       </c>
       <c r="M33" s="7">
-        <f>Data_total!M33-Steel_sec!M33</f>
-        <v>1287.3642571483001</v>
+        <f t="shared" si="2"/>
+        <v>1663.9783163265306</v>
       </c>
       <c r="N33" s="7">
-        <f>Data_total!N33-Steel_sec!N33</f>
-        <v>1316.79185446158</v>
+        <f t="shared" si="2"/>
+        <v>1666.595663265306</v>
       </c>
       <c r="O33" s="7">
-        <f>Data_total!O33-Steel_sec!O33</f>
-        <v>1353.6694764111401</v>
+        <f t="shared" si="2"/>
+        <v>1706.5102040816325</v>
       </c>
       <c r="P33" s="7">
-        <f>Data_total!P33-Steel_sec!P33</f>
-        <v>1481.4373989232599</v>
+        <f t="shared" si="2"/>
+        <v>1915.8979591836735</v>
       </c>
       <c r="Q33" s="7">
-        <f>Data_total!Q33-Steel_sec!Q33</f>
-        <v>1430.4047301647799</v>
+        <f t="shared" si="2"/>
+        <v>1839.3405612244899</v>
       </c>
       <c r="R33" s="7">
-        <f>Data_total!R33-Steel_sec!R33</f>
-        <v>1539.9200923180199</v>
+        <f t="shared" si="2"/>
+        <v>1983.2946428571429</v>
       </c>
       <c r="S33" s="7">
-        <f>Data_total!S33-Steel_sec!S33</f>
-        <v>1577.91521796302</v>
+        <f t="shared" si="2"/>
+        <v>1696.0408163265306</v>
       </c>
       <c r="T33" s="7">
-        <f>Data_total!T33-Steel_sec!T33</f>
-        <v>1668.8055185255701</v>
+        <f t="shared" si="2"/>
+        <v>2175.6696428571427</v>
       </c>
       <c r="U33" s="7">
-        <f>Data_total!U33-Steel_sec!U33</f>
-        <v>1683.70556779812</v>
+        <f t="shared" si="2"/>
+        <v>2145.5701530612246</v>
       </c>
       <c r="V33" s="7">
-        <f>Data_total!V33-Steel_sec!V33</f>
-        <v>1626.7128793306199</v>
+        <f t="shared" si="2"/>
+        <v>1974.1339285714284</v>
       </c>
       <c r="W33" s="7">
-        <f>Data_total!W33-Steel_sec!W33</f>
-        <v>1670.6680246846399</v>
+        <f t="shared" si="2"/>
+        <v>2008.1594387755101</v>
       </c>
       <c r="X33" s="7">
-        <f>Data_total!X33-Steel_sec!X33</f>
-        <v>1676.25554316185</v>
+        <f t="shared" si="2"/>
+        <v>1951.2321428571429</v>
       </c>
       <c r="Y33" s="7">
-        <f>Data_total!Y33-Steel_sec!Y33</f>
-        <v>1394.2721106788399</v>
+        <f t="shared" si="2"/>
+        <v>1641.0765306122448</v>
       </c>
       <c r="Z33" s="7">
-        <f>Data_total!Z33-Steel_sec!Z33</f>
-        <v>810.56268042670604</v>
+        <f>$AA33/SUM($AA$28:$AA$33)*Z$27</f>
+        <v>896.44132653061229</v>
       </c>
       <c r="AA33" s="7">
         <f>Data_total!AA33-Steel_sec!AA33</f>
-        <v>596.74697336561701</v>
+        <v>513</v>
       </c>
       <c r="AB33" s="7">
         <f>Data_total!AB33-Steel_sec!AB33</f>
-        <v>161.93583535108999</v>
+        <v>61</v>
       </c>
       <c r="AC33" s="7">
         <f>Data_total!AC33-Steel_sec!AC33</f>
-        <v>124.359564164649</v>
+        <v>21</v>
       </c>
       <c r="AD33" s="7">
         <f>Data_total!AD33-Steel_sec!AD33</f>
-        <v>162.83050847457599</v>
+        <v>93</v>
       </c>
       <c r="AE33" s="7">
         <f>Data_total!AE33-Steel_sec!AE33</f>
-        <v>616.42978208232398</v>
+        <v>568</v>
       </c>
       <c r="AF33" s="7">
         <f>Data_total!AF33-Steel_sec!AF33</f>
-        <v>917.03995157384998</v>
+        <v>893</v>
       </c>
       <c r="AG33" s="7">
         <f>Data_total!AG33-Steel_sec!AG33</f>
-        <v>876.77966101694904</v>
+        <v>839</v>
       </c>
       <c r="AH33" s="7">
         <f>Data_total!AH33-Steel_sec!AH33</f>
-        <v>205.77481840193701</v>
+        <v>142</v>
       </c>
       <c r="AI33" s="7">
         <f>Data_total!AI33-Steel_sec!AI33</f>
-        <v>622.69249394673102</v>
+        <v>592</v>
       </c>
       <c r="AJ33" s="7">
         <f>Data_total!AJ33-Steel_sec!AJ33</f>
-        <v>532.33050847457605</v>
+        <v>485</v>
       </c>
       <c r="AK33" s="7">
         <f>Data_total!AK33-Steel_sec!AK33</f>
-        <v>528.75181598063</v>
+        <v>508</v>
       </c>
       <c r="AL33" s="7">
         <f>Data_total!AL33-Steel_sec!AL33</f>
-        <v>636.11259079903198</v>
+        <v>658</v>
       </c>
       <c r="AM33" s="7">
         <f>Data_total!AM33-Steel_sec!AM33</f>
-        <v>1051.24092009685</v>
+        <v>1025</v>
       </c>
       <c r="AN33" s="7">
         <f>Data_total!AN33-Steel_sec!AN33</f>
-        <v>1155.91767554479</v>
+        <v>1185</v>
       </c>
       <c r="AO33" s="7">
         <f>Data_total!AO33-Steel_sec!AO33</f>
-        <v>1630.98910411622</v>
+        <v>1662</v>
       </c>
       <c r="AP33" s="7">
         <f>Data_total!AP33-Steel_sec!AP33</f>
@@ -20428,10 +20354,10 @@
   <dimension ref="A1:BE65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BA64" sqref="BA64:BD65"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="I29:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -23738,6 +23664,18 @@
       <c r="V27">
         <v>1350</v>
       </c>
+      <c r="W27">
+        <v>1416</v>
+      </c>
+      <c r="X27">
+        <v>1466</v>
+      </c>
+      <c r="Y27">
+        <v>1101</v>
+      </c>
+      <c r="Z27">
+        <v>806</v>
+      </c>
     </row>
     <row r="28" spans="1:54">
       <c r="A28" s="29" t="s">
@@ -23750,74 +23688,77 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <f>753/807*J28</f>
-        <v>371.40590405904055</v>
-      </c>
-      <c r="J28" s="3">
-        <f>807/831*K28</f>
-        <v>398.04059040590403</v>
-      </c>
-      <c r="K28" s="3">
-        <f>831/871*L28</f>
-        <v>409.87822878228775</v>
-      </c>
-      <c r="L28" s="3">
-        <f>871/913*M28</f>
-        <v>429.60762607626066</v>
-      </c>
-      <c r="M28" s="3">
-        <f>913/988*N28</f>
-        <v>450.32349323493224</v>
-      </c>
-      <c r="N28" s="3">
-        <f>988/1026*O28</f>
-        <v>487.31611316113151</v>
-      </c>
-      <c r="O28" s="3">
-        <f>1026/1049*P28</f>
-        <v>506.0590405904058</v>
-      </c>
-      <c r="P28" s="3">
-        <f>1049/1029*Q28</f>
-        <v>517.40344403444021</v>
-      </c>
-      <c r="Q28" s="3">
-        <f>1029/1103*R28</f>
-        <v>507.53874538745373</v>
-      </c>
-      <c r="R28" s="3">
-        <f>1103/1644*S28</f>
-        <v>544.03813038130363</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" ref="S28:S32" si="1">1644/1155*T28</f>
-        <v>810.87822878228758</v>
-      </c>
-      <c r="T28" s="3">
-        <f t="shared" ref="T28:T32" si="2">1155/1241*U28</f>
-        <v>569.68634686346843</v>
-      </c>
-      <c r="U28" s="3">
-        <f t="shared" ref="U28:U32" si="3">1241/1350*V28</f>
-        <v>612.10455104551022</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" ref="V28:V32" si="4">1350/1416*W28</f>
-        <v>665.86715867158648</v>
+      <c r="I28">
+        <f t="shared" ref="I28:U29" si="1">$AA28/SUM($AA$28:$AA$32)*I$27</f>
+        <v>369.13569682151592</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>395.60757946210271</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>407.37286063569684</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>426.98166259168704</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>447.57090464547679</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>484.33740831295847</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>502.96577017114913</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>514.24083129584358</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>504.43643031784842</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>540.7127139364303</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>805.92176039119806</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>566.20415647921766</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>608.36308068459664</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="U28:Y29" si="2">$AA28/SUM($AA$28:$AA$32)*V$27</f>
+        <v>661.79706601466989</v>
       </c>
       <c r="W28">
-        <f>1416/1466*X28</f>
-        <v>698.42066420664185</v>
+        <f t="shared" si="2"/>
+        <v>694.15158924205377</v>
       </c>
       <c r="X28">
-        <v>723.08241082410802</v>
+        <f t="shared" si="2"/>
+        <v>718.66259168704153</v>
       </c>
       <c r="Y28">
-        <v>543.05166051660501</v>
+        <f t="shared" si="2"/>
+        <v>539.73227383863082</v>
       </c>
       <c r="Z28">
-        <v>397.547355473555</v>
+        <f>$AA28/SUM($AA$28:$AA$32)*Z$27</f>
+        <v>395.11735941320296</v>
       </c>
       <c r="AA28">
         <v>401</v>
@@ -23915,20 +23856,81 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>4.6026894865525678</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>4.9327628361858196</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>5.0794621026894866</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>5.3239608801955995</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>5.5806845965770178</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>6.0391198044009782</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>6.2713936430317849</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>6.4119804400977998</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>6.2897310513447433</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>6.7420537897310515</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>10.048899755501223</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>7.059902200488998</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>7.5855745721271397</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>8.2518337408312963</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>8.6552567237163824</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>8.9608801955990227</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>6.7298288508557462</v>
+      </c>
+      <c r="Z29">
+        <f>$AA29/SUM($AA$28:$AA$32)*Z$27</f>
+        <v>4.9266503667481665</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
       <c r="AE29">
         <v>15</v>
       </c>
@@ -23986,74 +23988,77 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <f>753/807*J30</f>
-        <v>94.472324723247425</v>
-      </c>
-      <c r="J30" s="3">
-        <f>807/831*K30</f>
-        <v>101.24723247232492</v>
-      </c>
-      <c r="K30" s="3">
-        <f>831/871*L30</f>
-        <v>104.25830258302604</v>
-      </c>
-      <c r="L30" s="3">
-        <f>871/913*M30</f>
-        <v>109.2767527675279</v>
-      </c>
-      <c r="M30" s="3">
-        <f>913/988*N30</f>
-        <v>114.54612546125485</v>
-      </c>
-      <c r="N30" s="3">
-        <f>988/1026*O30</f>
-        <v>123.95571955719583</v>
-      </c>
-      <c r="O30" s="3">
-        <f>1026/1049*P30</f>
-        <v>128.7232472324726</v>
-      </c>
-      <c r="P30" s="3">
-        <f>1049/1029*Q30</f>
-        <v>131.60885608856117</v>
-      </c>
-      <c r="Q30" s="3">
-        <f>1029/1103*R30</f>
-        <v>129.09963099631025</v>
-      </c>
-      <c r="R30" s="3">
-        <f>1103/1644*S30</f>
-        <v>138.38376383763867</v>
-      </c>
-      <c r="S30" s="3">
-        <f t="shared" si="1"/>
-        <v>206.25830258302625</v>
-      </c>
-      <c r="T30" s="3">
-        <f t="shared" si="2"/>
-        <v>144.90774907749108</v>
-      </c>
-      <c r="U30" s="3">
+      <c r="I30">
+        <f t="shared" ref="I30:Y32" si="3">$AA30/SUM($AA$28:$AA$32)*I$27</f>
+        <v>93.894865525672373</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="3"/>
-        <v>155.69741697417007</v>
-      </c>
-      <c r="V30" s="3">
-        <f t="shared" si="4"/>
-        <v>169.37269372693763</v>
+        <v>100.62836185819071</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>103.62102689486554</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>108.60880195599023</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>113.84596577017115</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>123.19804400977996</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>127.93643031784842</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>130.80440097799513</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>128.31051344743278</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>137.53789731051344</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>204.99755501222495</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>144.02200488997556</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>154.74572127139365</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>168.33740831295844</v>
       </c>
       <c r="W30">
-        <f t="shared" ref="W30:W32" si="5">1416/1466*X30</f>
-        <v>177.65313653136567</v>
+        <f t="shared" si="3"/>
+        <v>176.56723716381418</v>
       </c>
       <c r="X30">
-        <v>183.92619926199299</v>
+        <f t="shared" si="3"/>
+        <v>182.80195599022005</v>
       </c>
       <c r="Y30">
-        <v>138.13284132841301</v>
+        <f t="shared" si="3"/>
+        <v>137.28850855745722</v>
       </c>
       <c r="Z30">
-        <v>101.12177121771199</v>
+        <f t="shared" ref="Z29:Z32" si="4">$AA30/SUM($AA$28:$AA$32)*Z$27</f>
+        <v>100.5036674816626</v>
       </c>
       <c r="AA30">
         <v>102</v>
@@ -24151,74 +24156,77 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <f>753/807*J31</f>
-        <v>144.48708487084872</v>
-      </c>
-      <c r="J31" s="3">
-        <f>807/831*K31</f>
-        <v>154.84870848708488</v>
-      </c>
-      <c r="K31" s="3">
-        <f>831/871*L31</f>
-        <v>159.4538745387454</v>
-      </c>
-      <c r="L31" s="3">
-        <f>871/913*M31</f>
-        <v>167.12915129151293</v>
-      </c>
-      <c r="M31" s="3">
-        <f>913/988*N31</f>
-        <v>175.18819188191884</v>
-      </c>
-      <c r="N31" s="3">
-        <f>988/1026*O31</f>
-        <v>189.57933579335796</v>
-      </c>
-      <c r="O31" s="3">
-        <f>1026/1049*P31</f>
-        <v>196.87084870848713</v>
-      </c>
-      <c r="P31" s="3">
-        <f>1049/1029*Q31</f>
-        <v>201.28413284132847</v>
-      </c>
-      <c r="Q31" s="3">
-        <f>1029/1103*R31</f>
-        <v>197.44649446494472</v>
-      </c>
-      <c r="R31" s="3">
-        <f>1103/1644*S31</f>
-        <v>211.64575645756466</v>
-      </c>
-      <c r="S31" s="3">
-        <f t="shared" si="1"/>
-        <v>315.45387453874548</v>
-      </c>
-      <c r="T31" s="3">
-        <f t="shared" si="2"/>
-        <v>221.62361623616241</v>
-      </c>
-      <c r="U31" s="3">
+      <c r="I31">
         <f t="shared" si="3"/>
-        <v>238.12546125461262</v>
-      </c>
-      <c r="V31" s="3">
+        <v>143.6039119804401</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>153.90220048899755</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>158.47921760391196</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>166.10757946210268</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>174.11735941320293</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>188.42053789731051</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>195.66748166259168</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>200.05378973105132</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>196.23960880195597</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>210.3520782396088</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>313.52567237163811</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>220.26894865525671</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>236.66992665036673</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>257.45721271393643</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>270.04400977995107</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>279.57946210268949</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>209.97066014669926</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="4"/>
-        <v>259.04059040590414</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="5"/>
-        <v>271.70479704797054</v>
-      </c>
-      <c r="X31">
-        <v>281.29889298892999</v>
-      </c>
-      <c r="Y31">
-        <v>211.26199261992599</v>
-      </c>
-      <c r="Z31">
-        <v>154.65682656826601</v>
+        <v>153.71149144254278</v>
       </c>
       <c r="AA31">
         <v>156</v>
@@ -24306,74 +24314,77 @@
       <c r="A32" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="3">
-        <f>753/807*J32</f>
-        <v>142.63468634686339</v>
-      </c>
-      <c r="J32" s="3">
-        <f>807/831*K32</f>
-        <v>152.86346863468626</v>
-      </c>
-      <c r="K32" s="3">
-        <f>831/871*L32</f>
-        <v>157.40959409594086</v>
-      </c>
-      <c r="L32" s="3">
-        <f>871/913*M32</f>
-        <v>164.98646986469853</v>
-      </c>
-      <c r="M32" s="3">
-        <f>913/988*N32</f>
-        <v>172.94218942189408</v>
-      </c>
-      <c r="N32" s="3">
-        <f>988/1026*O32</f>
-        <v>187.14883148831476</v>
-      </c>
-      <c r="O32" s="3">
-        <f>1026/1049*P32</f>
-        <v>194.34686346863455</v>
-      </c>
-      <c r="P32" s="3">
-        <f>1049/1029*Q32</f>
-        <v>198.7035670356702</v>
-      </c>
-      <c r="Q32" s="3">
-        <f>1029/1103*R32</f>
-        <v>194.91512915129135</v>
-      </c>
-      <c r="R32" s="3">
-        <f>1103/1644*S32</f>
-        <v>208.93234932349304</v>
-      </c>
-      <c r="S32" s="3">
-        <f t="shared" si="1"/>
-        <v>311.40959409594063</v>
-      </c>
-      <c r="T32" s="3">
-        <f t="shared" si="2"/>
-        <v>218.782287822878</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="I32">
         <f t="shared" si="3"/>
-        <v>235.07257072570704</v>
-      </c>
-      <c r="V32" s="3">
+        <v>141.76283618581908</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>151.92909535452324</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>156.4474327628362</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>163.97799511002447</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>171.88508557457214</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>186.00488997555013</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>193.15892420537898</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>197.48899755501222</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>193.72371638141809</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>207.65525672371638</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>309.50611246943765</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>217.44498777506112</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="3"/>
+        <v>233.63569682151589</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>254.15647921760393</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="3"/>
+        <v>266.58190709046454</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>275.9951100244499</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>207.27872860635696</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="4"/>
-        <v>255.71955719557172</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="5"/>
-        <v>268.22140221402191</v>
-      </c>
-      <c r="X32">
-        <v>277.69249692496902</v>
-      </c>
-      <c r="Y32">
-        <v>208.553505535055</v>
-      </c>
-      <c r="Z32">
-        <v>152.67404674046699</v>
+        <v>151.74083129584352</v>
       </c>
       <c r="AA32">
         <v>154</v>
@@ -26523,10 +26534,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -26610,8 +26621,8 @@
       <c r="B10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>73</v>
+      <c r="C10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -26619,7 +26630,7 @@
         <v>96</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -26627,7 +26638,7 @@
         <v>97</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -26635,7 +26646,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -26643,7 +26654,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -26651,7 +26662,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -26659,36 +26670,44 @@
         <v>101</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
+      <c r="A20" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C21" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -26696,7 +26715,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{9B7D984B-1BB8-4C69-BBD6-8D750878F03B}"/>
-    <hyperlink ref="F19" r:id="rId2" xr:uid="{E2EF2939-CF5C-46DD-A435-A5B38232D075}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{E2EF2939-CF5C-46DD-A435-A5B38232D075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/input/industry/Steel_Production.xlsx
+++ b/input/industry/Steel_Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71C6D3-0627-44B1-8E15-519BEE41409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A8B1F7-05E2-4B36-A4C8-6B1A4E57421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-11160" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_total" sheetId="1" r:id="rId1"/>
@@ -886,23 +886,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.42578125"/>
-    <col min="2" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="18" width="9.85546875" customWidth="1"/>
-    <col min="20" max="22" width="9.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="8"/>
-    <col min="27" max="35" width="11.5703125" style="8" customWidth="1"/>
-    <col min="36" max="38" width="11.5703125" customWidth="1"/>
-    <col min="39" max="41" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.453125"/>
+    <col min="2" max="11" width="9.26953125" customWidth="1"/>
+    <col min="12" max="18" width="9.81640625" customWidth="1"/>
+    <col min="20" max="22" width="9.81640625" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="8"/>
+    <col min="27" max="35" width="11.54296875" style="8" customWidth="1"/>
+    <col min="36" max="38" width="11.54296875" customWidth="1"/>
+    <col min="39" max="41" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -10472,14 +10472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AH25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA26" sqref="AA26"/>
+      <selection pane="bottomRight" activeCell="AP64" sqref="AP64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" t="s">
@@ -20282,6 +20282,10 @@
       <c r="AL64" s="38"/>
       <c r="AM64" s="38"/>
       <c r="AN64" s="38"/>
+      <c r="AZ64" s="38">
+        <f>Data_total!AZ64-Steel_sec!AZ64</f>
+        <v>0</v>
+      </c>
       <c r="BA64" s="38">
         <f>Data_total!BA64-Steel_sec!BA64</f>
         <v>0</v>
@@ -20326,6 +20330,10 @@
       <c r="AL65" s="38"/>
       <c r="AM65" s="38"/>
       <c r="AN65" s="38"/>
+      <c r="AZ65" s="38">
+        <f>Data_total!AZ65-Steel_sec!AZ65</f>
+        <v>0</v>
+      </c>
       <c r="BA65" s="38">
         <f>Data_total!BA65-Steel_sec!BA65</f>
         <v>0</v>
@@ -20354,18 +20362,18 @@
   <dimension ref="A1:BE65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="I29:Z29"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="9" max="20" width="12.5703125"/>
-    <col min="21" max="21" width="11.42578125"/>
-    <col min="22" max="22" width="12.5703125"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="9" max="20" width="12.54296875"/>
+    <col min="21" max="21" width="11.453125"/>
+    <col min="22" max="22" width="12.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -23741,7 +23749,7 @@
         <v>608.36308068459664</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="U28:Y29" si="2">$AA28/SUM($AA$28:$AA$32)*V$27</f>
+        <f t="shared" ref="V28:Y29" si="2">$AA28/SUM($AA$28:$AA$32)*V$27</f>
         <v>661.79706601466989</v>
       </c>
       <c r="W28">
@@ -24057,7 +24065,7 @@
         <v>137.28850855745722</v>
       </c>
       <c r="Z30">
-        <f t="shared" ref="Z29:Z32" si="4">$AA30/SUM($AA$28:$AA$32)*Z$27</f>
+        <f t="shared" ref="Z30:Z32" si="4">$AA30/SUM($AA$28:$AA$32)*Z$27</f>
         <v>100.5036674816626</v>
       </c>
       <c r="AA30">
@@ -24476,6 +24484,9 @@
         <v>31</v>
       </c>
       <c r="U33" s="3"/>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
       <c r="BA33">
         <v>203</v>
       </c>
@@ -26480,6 +26491,9 @@
         <v>0</v>
       </c>
       <c r="AH64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
         <v>0</v>
       </c>
       <c r="BA64">
@@ -26513,6 +26527,9 @@
       <c r="AF65" s="8"/>
       <c r="AG65" s="8"/>
       <c r="AH65" s="8"/>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
       <c r="BA65">
         <v>0</v>
       </c>
@@ -26537,12 +26554,12 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
